--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Calr-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Calr-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H2">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I2">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J2">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>80.99474354295599</v>
+        <v>1089.885853502541</v>
       </c>
       <c r="R2">
-        <v>728.9526918866039</v>
+        <v>9808.972681522871</v>
       </c>
       <c r="S2">
-        <v>0.0002028140954771509</v>
+        <v>0.001470269830392007</v>
       </c>
       <c r="T2">
-        <v>0.000202814095477151</v>
+        <v>0.001470269830392007</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H3">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I3">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J3">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>6623.665038788542</v>
+        <v>16995.17158063301</v>
       </c>
       <c r="R3">
-        <v>59612.98534909688</v>
+        <v>152956.5442256971</v>
       </c>
       <c r="S3">
-        <v>0.0165859236639605</v>
+        <v>0.02292670187161218</v>
       </c>
       <c r="T3">
-        <v>0.01658592366396051</v>
+        <v>0.02292670187161218</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H4">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I4">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J4">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>6149.901683376004</v>
+        <v>20108.33566549706</v>
       </c>
       <c r="R4">
-        <v>55349.11515038404</v>
+        <v>180975.0209894735</v>
       </c>
       <c r="S4">
-        <v>0.01539960116702891</v>
+        <v>0.02712639968063129</v>
       </c>
       <c r="T4">
-        <v>0.01539960116702891</v>
+        <v>0.02712639968063129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H5">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I5">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J5">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>1065.205631635932</v>
+        <v>1918.945181389532</v>
       </c>
       <c r="R5">
-        <v>9586.850684723391</v>
+        <v>17270.50663250579</v>
       </c>
       <c r="S5">
-        <v>0.002667317744673536</v>
+        <v>0.002588681371820895</v>
       </c>
       <c r="T5">
-        <v>0.002667317744673536</v>
+        <v>0.002588681371820895</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H6">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I6">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J6">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>2481.473290350584</v>
+        <v>6504.638736477546</v>
       </c>
       <c r="R6">
-        <v>22333.25961315526</v>
+        <v>58541.74862829791</v>
       </c>
       <c r="S6">
-        <v>0.006213708925027304</v>
+        <v>0.008774840100096609</v>
       </c>
       <c r="T6">
-        <v>0.006213708925027305</v>
+        <v>0.008774840100096609</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.30782266666666</v>
+        <v>118.8178126666667</v>
       </c>
       <c r="H7">
-        <v>138.923468</v>
+        <v>356.453438</v>
       </c>
       <c r="I7">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="J7">
-        <v>0.05564594959396952</v>
+        <v>0.1016906232705593</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>5821.225984598038</v>
+        <v>28764.54101779106</v>
       </c>
       <c r="R7">
-        <v>52391.03386138234</v>
+        <v>258880.8691601195</v>
       </c>
       <c r="S7">
-        <v>0.01457658399780211</v>
+        <v>0.03880373041600632</v>
       </c>
       <c r="T7">
-        <v>0.01457658399780211</v>
+        <v>0.03880373041600633</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I8">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J8">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>587.35934559702</v>
+        <v>3080.35572582296</v>
       </c>
       <c r="R8">
-        <v>5286.234110373181</v>
+        <v>27723.20153240664</v>
       </c>
       <c r="S8">
-        <v>0.001470771425236163</v>
+        <v>0.004155438916835349</v>
       </c>
       <c r="T8">
-        <v>0.001470771425236163</v>
+        <v>0.004155438916835349</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I9">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J9">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>48033.63023889775</v>
@@ -1013,10 +1013,10 @@
         <v>432302.6721500797</v>
       </c>
       <c r="S9">
-        <v>0.1202781420527531</v>
+        <v>0.06479797600592663</v>
       </c>
       <c r="T9">
-        <v>0.1202781420527532</v>
+        <v>0.06479797600592664</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I10">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J10">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>44597.98340268825</v>
+        <v>56832.39827815554</v>
       </c>
       <c r="R10">
-        <v>401381.8506241942</v>
+        <v>511491.5845033998</v>
       </c>
       <c r="S10">
-        <v>0.1116751441915992</v>
+        <v>0.07666762561296046</v>
       </c>
       <c r="T10">
-        <v>0.1116751441915992</v>
+        <v>0.07666762561296048</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I11">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J11">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>7724.680088555628</v>
+        <v>5423.534728923648</v>
       </c>
       <c r="R11">
-        <v>69522.12079700065</v>
+        <v>48811.81256031282</v>
       </c>
       <c r="S11">
-        <v>0.0193429096319056</v>
+        <v>0.007316417091196912</v>
       </c>
       <c r="T11">
-        <v>0.01934290963190561</v>
+        <v>0.007316417091196913</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I12">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J12">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>17995.19899910297</v>
+        <v>18384.12812858086</v>
       </c>
       <c r="R12">
-        <v>161956.7909919267</v>
+        <v>165457.1531572278</v>
       </c>
       <c r="S12">
-        <v>0.04506070206887899</v>
+        <v>0.02480042185945345</v>
       </c>
       <c r="T12">
-        <v>0.04506070206887899</v>
+        <v>0.02480042185945345</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1007.44806</v>
       </c>
       <c r="I13">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358474</v>
       </c>
       <c r="J13">
-        <v>0.4035344407418795</v>
+        <v>0.2874092664358475</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>42214.4862162877</v>
+        <v>81297.5215157387</v>
       </c>
       <c r="R13">
-        <v>379930.3759465892</v>
+        <v>731677.6936416483</v>
       </c>
       <c r="S13">
-        <v>0.1057067713715064</v>
+        <v>0.1096713869494746</v>
       </c>
       <c r="T13">
-        <v>0.1057067713715064</v>
+        <v>0.1096713869494746</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H14">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I14">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J14">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>261.3695073130739</v>
+        <v>2256.847926592186</v>
       </c>
       <c r="R14">
-        <v>2352.325565817666</v>
+        <v>20311.63133932967</v>
       </c>
       <c r="S14">
-        <v>0.0006544797587129325</v>
+        <v>0.003044516457927864</v>
       </c>
       <c r="T14">
-        <v>0.0006544797587129327</v>
+        <v>0.003044516457927864</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H15">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I15">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J15">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>21374.52372914584</v>
+        <v>35192.23377436068</v>
       </c>
       <c r="R15">
-        <v>192370.7135623125</v>
+        <v>316730.103969246</v>
       </c>
       <c r="S15">
-        <v>0.05352266711089088</v>
+        <v>0.04747476941393704</v>
       </c>
       <c r="T15">
-        <v>0.05352266711089089</v>
+        <v>0.04747476941393704</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H16">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I16">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J16">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>19845.69248194902</v>
+        <v>41638.72345719084</v>
       </c>
       <c r="R16">
-        <v>178611.2323375412</v>
+        <v>374748.5111147175</v>
       </c>
       <c r="S16">
-        <v>0.04969441217761882</v>
+        <v>0.05617116570363934</v>
       </c>
       <c r="T16">
-        <v>0.04969441217761882</v>
+        <v>0.05617116570363934</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H17">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I17">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J17">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>3437.411601657063</v>
+        <v>3973.597271627429</v>
       </c>
       <c r="R17">
-        <v>30936.70441491357</v>
+        <v>35762.37544464686</v>
       </c>
       <c r="S17">
-        <v>0.008607416904814343</v>
+        <v>0.005360433083727678</v>
       </c>
       <c r="T17">
-        <v>0.008607416904814346</v>
+        <v>0.005360433083727678</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H18">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I18">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J18">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>8007.69806704192</v>
+        <v>13469.28249272512</v>
       </c>
       <c r="R18">
-        <v>72069.28260337729</v>
+        <v>121223.5424345261</v>
       </c>
       <c r="S18">
-        <v>0.02005159803314768</v>
+        <v>0.01817023280230586</v>
       </c>
       <c r="T18">
-        <v>0.02005159803314768</v>
+        <v>0.01817023280230586</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>149.4350406666667</v>
+        <v>246.0383656666667</v>
       </c>
       <c r="H19">
-        <v>448.305122</v>
+        <v>738.115097</v>
       </c>
       <c r="I19">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="J19">
-        <v>0.1795691151442488</v>
+        <v>0.2105727600229776</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>18785.05815313215</v>
+        <v>59563.29696982001</v>
       </c>
       <c r="R19">
-        <v>169065.5233781894</v>
+        <v>536069.6727283801</v>
       </c>
       <c r="S19">
-        <v>0.0470385411590641</v>
+        <v>0.08035164256143983</v>
       </c>
       <c r="T19">
-        <v>0.04703854115906411</v>
+        <v>0.08035164256143984</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H20">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I20">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J20">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>104.478252028818</v>
+        <v>603.6821198423601</v>
       </c>
       <c r="R20">
-        <v>940.3042682593619</v>
+        <v>5433.13907858124</v>
       </c>
       <c r="S20">
-        <v>0.0002616177452431895</v>
+        <v>0.0008143748311797353</v>
       </c>
       <c r="T20">
-        <v>0.0002616177452431895</v>
+        <v>0.0008143748311797353</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H21">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I21">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J21">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>8544.12169241574</v>
+        <v>9413.537366238736</v>
       </c>
       <c r="R21">
-        <v>76897.09523174165</v>
+        <v>84721.83629614861</v>
       </c>
       <c r="S21">
-        <v>0.021394824366287</v>
+        <v>0.01269898122117095</v>
       </c>
       <c r="T21">
-        <v>0.02139482436628701</v>
+        <v>0.01269898122117095</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H22">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I22">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J22">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>7932.996018284082</v>
+        <v>11137.90280150718</v>
       </c>
       <c r="R22">
-        <v>71396.96416455675</v>
+        <v>100241.1252135646</v>
       </c>
       <c r="S22">
-        <v>0.01986454109850752</v>
+        <v>0.01502517204922729</v>
       </c>
       <c r="T22">
-        <v>0.01986454109850752</v>
+        <v>0.01502517204922729</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H23">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I23">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J23">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>1374.049939247619</v>
+        <v>1062.893780334597</v>
       </c>
       <c r="R23">
-        <v>12366.44945322858</v>
+        <v>9566.044023011371</v>
       </c>
       <c r="S23">
-        <v>0.003440676312792353</v>
+        <v>0.001433857181571008</v>
       </c>
       <c r="T23">
-        <v>0.003440676312792354</v>
+        <v>0.001433857181571008</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H24">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I24">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J24">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>3200.948363945725</v>
+        <v>3602.88564956251</v>
       </c>
       <c r="R24">
-        <v>28808.53527551153</v>
+        <v>32425.9708460626</v>
       </c>
       <c r="S24">
-        <v>0.008015303446925703</v>
+        <v>0.004860338406889612</v>
       </c>
       <c r="T24">
-        <v>0.008015303446925703</v>
+        <v>0.004860338406889613</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>59.73425133333333</v>
+        <v>65.81257000000001</v>
       </c>
       <c r="H25">
-        <v>179.202754</v>
+        <v>197.43771</v>
       </c>
       <c r="I25">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="J25">
-        <v>0.07177986239290053</v>
+        <v>0.05632590865068873</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>7509.02452346158</v>
+        <v>15932.53003707524</v>
       </c>
       <c r="R25">
-        <v>67581.22071115422</v>
+        <v>143392.7703336772</v>
       </c>
       <c r="S25">
-        <v>0.01880289942314475</v>
+        <v>0.02149318496065014</v>
       </c>
       <c r="T25">
-        <v>0.01880289942314475</v>
+        <v>0.02149318496065014</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H26">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I26">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J26">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>189.507386925258</v>
+        <v>1181.407188221572</v>
       </c>
       <c r="R26">
-        <v>1705.566482327322</v>
+        <v>10632.66469399415</v>
       </c>
       <c r="S26">
-        <v>0.0004745341189345277</v>
+        <v>0.001593733270936871</v>
       </c>
       <c r="T26">
-        <v>0.0004745341189345278</v>
+        <v>0.001593733270936871</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H27">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I27">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J27">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>15497.71501780587</v>
+        <v>18422.31258061925</v>
       </c>
       <c r="R27">
-        <v>139479.4351602528</v>
+        <v>165800.8132255732</v>
       </c>
       <c r="S27">
-        <v>0.03880690172976431</v>
+        <v>0.02485193316923114</v>
       </c>
       <c r="T27">
-        <v>0.03880690172976432</v>
+        <v>0.02485193316923114</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H28">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I28">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J28">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>14389.22758296936</v>
+        <v>21796.89939276292</v>
       </c>
       <c r="R28">
-        <v>129503.0482467243</v>
+        <v>196172.0945348662</v>
       </c>
       <c r="S28">
-        <v>0.03603120460906263</v>
+        <v>0.02940429355081489</v>
       </c>
       <c r="T28">
-        <v>0.03603120460906263</v>
+        <v>0.0294042935508149</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H29">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I29">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J29">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>2492.314031247406</v>
+        <v>2080.085381245345</v>
       </c>
       <c r="R29">
-        <v>22430.82628122665</v>
+        <v>18720.7684312081</v>
       </c>
       <c r="S29">
-        <v>0.006240854576252497</v>
+        <v>0.002806061543836117</v>
       </c>
       <c r="T29">
-        <v>0.006240854576252498</v>
+        <v>0.002806061543836117</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H30">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I30">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J30">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>5806.025161740991</v>
+        <v>7050.854853618978</v>
       </c>
       <c r="R30">
-        <v>52254.22645566893</v>
+        <v>63457.6936825708</v>
       </c>
       <c r="S30">
-        <v>0.01453852052598403</v>
+        <v>0.009511692565266294</v>
       </c>
       <c r="T30">
-        <v>0.01453852052598403</v>
+        <v>0.009511692565266296</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>108.3486913333333</v>
+        <v>128.795339</v>
       </c>
       <c r="H31">
-        <v>325.046074</v>
+        <v>386.386017</v>
       </c>
       <c r="I31">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="J31">
-        <v>0.1301975664005284</v>
+        <v>0.110229922629499</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>13620.20887759854</v>
+        <v>31179.99505645788</v>
       </c>
       <c r="R31">
-        <v>122581.8798983869</v>
+        <v>280619.9555081209</v>
       </c>
       <c r="S31">
-        <v>0.03410555084053042</v>
+        <v>0.0420622085294137</v>
       </c>
       <c r="T31">
-        <v>0.03410555084053042</v>
+        <v>0.0420622085294137</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H32">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I32">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J32">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>231.827854604787</v>
+        <v>2505.484412477107</v>
       </c>
       <c r="R32">
-        <v>2086.450691443083</v>
+        <v>22549.35971229396</v>
       </c>
       <c r="S32">
-        <v>0.0005805062721526133</v>
+        <v>0.00337993022878881</v>
       </c>
       <c r="T32">
-        <v>0.0005805062721526134</v>
+        <v>0.00337993022878881</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H33">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I33">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J33">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>18958.63840532681</v>
+        <v>39069.35514926438</v>
       </c>
       <c r="R33">
-        <v>170627.7456479413</v>
+        <v>351624.1963433794</v>
       </c>
       <c r="S33">
-        <v>0.04747319309203657</v>
+        <v>0.05270505529017775</v>
       </c>
       <c r="T33">
-        <v>0.04747319309203658</v>
+        <v>0.05270505529017775</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H34">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I34">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J34">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>17602.60543983684</v>
+        <v>46226.05331452985</v>
       </c>
       <c r="R34">
-        <v>158423.4489585316</v>
+        <v>416034.4798307687</v>
       </c>
       <c r="S34">
-        <v>0.0440776320061843</v>
+        <v>0.06235953182439135</v>
       </c>
       <c r="T34">
-        <v>0.0440776320061843</v>
+        <v>0.06235953182439136</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H35">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I35">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J35">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>3048.893366322309</v>
+        <v>4411.367690404026</v>
       </c>
       <c r="R35">
-        <v>27440.04029690078</v>
+        <v>39702.30921363623</v>
       </c>
       <c r="S35">
-        <v>0.007634551617155195</v>
+        <v>0.005950990927282442</v>
       </c>
       <c r="T35">
-        <v>0.007634551617155196</v>
+        <v>0.005950990927282442</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H36">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I36">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J36">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>7102.616836559988</v>
+        <v>14953.19065814562</v>
       </c>
       <c r="R36">
-        <v>63923.5515290399</v>
+        <v>134578.7159233106</v>
       </c>
       <c r="S36">
-        <v>0.01778523822924033</v>
+        <v>0.02017204372560456</v>
       </c>
       <c r="T36">
-        <v>0.01778523822924033</v>
+        <v>0.02017204372560456</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>132.544937</v>
+        <v>273.1443633333333</v>
       </c>
       <c r="H37">
-        <v>397.634811</v>
+        <v>819.43309</v>
       </c>
       <c r="I37">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="J37">
-        <v>0.1592730657264732</v>
+        <v>0.2337715189904279</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>16661.85078372741</v>
+        <v>66125.37351551726</v>
       </c>
       <c r="R37">
-        <v>149956.6570535467</v>
+        <v>595128.3616396553</v>
       </c>
       <c r="S37">
-        <v>0.04172194450970421</v>
+        <v>0.08920396699418297</v>
       </c>
       <c r="T37">
-        <v>0.04172194450970421</v>
+        <v>0.08920396699418298</v>
       </c>
     </row>
   </sheetData>
